--- a/projects/SST_oppdrett/Oppdrett.xlsx
+++ b/projects/SST_oppdrett/Oppdrett.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t xml:space="preserve">OBS</t>
   </si>
   <si>
-    <t xml:space="preserve">spatila resolution</t>
+    <t xml:space="preserve">spatial resolution</t>
   </si>
   <si>
     <t xml:space="preserve">temporal resolution</t>
@@ -43,22 +43,70 @@
     <t xml:space="preserve">file format</t>
   </si>
   <si>
+    <t xml:space="preserve">comment</t>
+  </si>
+  <si>
     <t xml:space="preserve">ERA5</t>
   </si>
   <si>
+    <t xml:space="preserve">0.5 degree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daily (mean)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1979-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/nird/projects/NS9853K/DATA/SFE/ERA_daily_nc/grid_15/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">netCDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barentswatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">point measurements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weekly (mean)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-2020(2021?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provided my the fishfarms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unsupervised post processing done by provider, missing data/timelag might be an issue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTG_SST_HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/12 degree</t>
+  </si>
+  <si>
     <t xml:space="preserve">daily</t>
   </si>
   <si>
-    <t xml:space="preserve">1979-2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/nird/projects/NS9853K/DATA/SFE/ERA_daily_nc/grid_15/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">netCDF</t>
+    <t xml:space="preserve">2005/09-2020/02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://polar.ncep.noaa.gov/sst/ophi/ no longer available?</t>
   </si>
 </sst>
 </file>
@@ -156,13 +204,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="16.84"/>
@@ -194,31 +242,89 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0.5</v>
+        <v>8</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H4" r:id="rId1" display="https://polar.ncep.noaa.gov/sst/ophi/"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/projects/SST_oppdrett/Oppdrett.xlsx
+++ b/projects/SST_oppdrett/Oppdrett.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t xml:space="preserve">OBS</t>
   </si>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://polar.ncep.noaa.gov/sst/ophi/ no longer available?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOAA OI SST V2 High Resolution Dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25 degree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1981 – present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://psl.noaa.gov/data/gridded/data.noaa.oisst.v2.highres.html#detail</t>
   </si>
 </sst>
 </file>
@@ -204,13 +216,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="16.84"/>
@@ -321,9 +333,35 @@
         <v>28</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" display="https://polar.ncep.noaa.gov/sst/ophi/"/>
+    <hyperlink ref="H4" r:id="rId1" display="https://polar.ncep.noaa.gov/sst/ophi/ no longer available?"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/projects/SST_oppdrett/Oppdrett.xlsx
+++ b/projects/SST_oppdrett/Oppdrett.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t xml:space="preserve">OBS</t>
   </si>
@@ -107,18 +107,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://polar.ncep.noaa.gov/sst/ophi/ no longer available?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOAA OI SST V2 High Resolution Dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25 degree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1981 – present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://psl.noaa.gov/data/gridded/data.noaa.oisst.v2.highres.html#detail</t>
   </si>
 </sst>
 </file>
@@ -216,13 +204,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="16.84"/>
@@ -333,35 +321,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" display="https://polar.ncep.noaa.gov/sst/ophi/ no longer available?"/>
+    <hyperlink ref="H4" r:id="rId1" display="https://polar.ncep.noaa.gov/sst/ophi/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
